--- a/public/sample/Import_School_Template.xlsx
+++ b/public/sample/Import_School_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quangtrung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4C2598-E853-418C-9849-6C675B5784C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD068BE5-CBB1-734C-BE76-C5B77C53F889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33855" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,6 @@
     <t>No. of User *</t>
   </si>
   <si>
-    <t>Expire date/License *</t>
-  </si>
-  <si>
     <t>School name: Nhập tên đăng nhập của trường, không được bỏ trống. Tối thiểu 6 ký tự, cho phép nhập chữ, số, dấu "chấm", "phẩy", các kí tự "/", “-”, “_”; và khoảng trắng giữa các từ, còn các ký tự khác k đc phép nhập.</t>
   </si>
   <si>
@@ -64,19 +61,29 @@
     <t>District/ Town *: Nhập theo đúng định dạng template</t>
   </si>
   <si>
-    <t>Expredate/ License *: Theo định dạng dd/mm/yyyy. Chỉ được nhập số, không được bỏ trống.</t>
+    <t>Expired date/ License *: Theo định dạng dd/mm/yyyy. Chỉ được nhập số, không được bỏ trống.</t>
+  </si>
+  <si>
+    <t>Expired date/License *</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -136,6 +143,14 @@
     <font>
       <sz val="13"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -166,26 +181,25 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -465,130 +479,137 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="9" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="9" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="9" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="9" t="s">
+    <row r="7" spans="1:8" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="10" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A7" s="9" t="s">
+    <row r="8" spans="1:8" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="8" customFormat="1" ht="17.25"/>
-    <row r="9" spans="1:8" ht="17.25">
-      <c r="A9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="D12" s="3"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="D13" s="3"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="D14" s="3"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="D15" s="3"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="4:5">
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="4:5">
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D10" s="2"/>
+      <c r="E10" s="10"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D11" s="2"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D12" s="2"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D13" s="2"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D14" s="2"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D15" s="2"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D16" s="2"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D17" s="2"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D18" s="2"/>
+      <c r="E18" s="9"/>
     </row>
   </sheetData>
-  <dataValidations count="8">
+  <dataValidations count="13">
     <dataValidation allowBlank="1" showErrorMessage="1" errorTitle="Phone number format" error="Phone number format invalid" promptTitle="Must input email format correct" prompt="*****@***.***" sqref="C9:D9 E1:E6" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Must input phone format correct" prompt="For example: 0912345678" sqref="B9 D9:D1048576" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Required" prompt="Input required" sqref="A9 B9:C1048576" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Phone number format" error="Phone number format invalid" promptTitle="Must input email format correct" prompt="*****@***.***" sqref="C9:D9 E9:E1048576" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Must input phone format correct" prompt="For example: 0912345678" sqref="B9 D9 D3051:D1048576" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Required" prompt="Input required" sqref="A9 B3804:B1048576 B9 C9 C3237:C1048576" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Phone number format" error="Phone number format invalid" promptTitle="Must input email format correct" prompt="*****@***.***" sqref="C9:D9 E9 E3086:E1048576" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
     <dataValidation allowBlank="1" showErrorMessage="1" promptTitle="Required" prompt="Input required" sqref="B1:C6 A9" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation allowBlank="1" showErrorMessage="1" promptTitle="Input" prompt="- Minimum length is 6 characters, maximum is 32._x000a_- Can only contain letters, numbers, dot (.) and underscores (_)." sqref="A1:A6" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
     <dataValidation allowBlank="1" showErrorMessage="1" promptTitle="Must input phone format correct" prompt="For example: 0912345678" sqref="D1:D6 B9" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Input" prompt="- Minimum length is 6 characters, maximum is 32._x000a_- Can only contain letters, numbers, dot (.) and underscores (_)." sqref="A9:A1048576" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Must input phone format correct" prompt="For example: 0336688123" sqref="B10:B3803" xr:uid="{411B8626-D6D0-42BE-AB5F-5ED8813AAE14}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Must input email format correct" prompt="*****@****" sqref="C10:C3236" xr:uid="{65982B1B-0EE2-490D-B996-7F5954940927}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Must input number" prompt="For example: 9" sqref="D10:D3050" xr:uid="{B87A74EA-76AC-42B3-B3C6-6D4A85FF0FED}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Phone number format" error="Phone number format invalid" promptTitle="Must input number" prompt="For example: 9" sqref="E10:E3085" xr:uid="{B9C95E06-C121-4432-A5EB-266196CF1010}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Format dd/mm/yyyy" prompt="For example: 25/02/2023" sqref="H10:H3576" xr:uid="{6A31D644-5CAD-4C06-A528-1F509D6F9230}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
